--- a/BOP_realistic_instance.xlsx
+++ b/BOP_realistic_instance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emapi\PycharmProjects\wm-bilevel-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144E437E-A430-4C07-AA84-DBF0A232DCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065B3084-66E2-461A-AFFA-3D3A6CD0F0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2684,7 +2684,7 @@
         <v>802.6</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" ref="G66:G97" si="2">F66/365</f>
+        <f t="shared" ref="G66:G68" si="2">F66/365</f>
         <v>2.1989041095890411</v>
       </c>
     </row>
@@ -2737,10 +2737,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G70" s="1">
-        <f>SUM(G2:G68)</f>
-        <v>249.52647671232882</v>
-      </c>
+      <c r="G70" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2757,7 +2754,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2827,20 +2824,20 @@
         <v>30.547945205479451</v>
       </c>
       <c r="H2" s="1">
-        <f>F2/4</f>
-        <v>2787.5</v>
+        <f>F2/3</f>
+        <v>3716.6666666666665</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I16" si="1">J2*0.7</f>
-        <v>5.3458904109589032</v>
+        <v>7.1278538812785381</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J16" si="2">H2/365</f>
-        <v>7.6369863013698627</v>
+        <v>10.182648401826484</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K16" si="3">J2*1.3</f>
-        <v>9.9280821917808222</v>
+        <v>13.237442922374429</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2867,20 +2864,20 @@
         <v>41.095890410958901</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H16" si="4">F3/4</f>
-        <v>3750</v>
+        <f t="shared" ref="H3:H16" si="4">F3/3</f>
+        <v>5000</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>7.1917808219178072</v>
+        <v>9.5890410958904102</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>10.273972602739725</v>
+        <v>13.698630136986301</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="3"/>
-        <v>13.356164383561643</v>
+        <v>17.808219178082194</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2908,19 +2905,19 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" si="4"/>
-        <v>17500</v>
+        <v>23333.333333333332</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>33.561643835616437</v>
+        <v>44.74885844748858</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="2"/>
-        <v>47.945205479452056</v>
+        <v>63.926940639269404</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="3"/>
-        <v>62.328767123287676</v>
+        <v>83.105022831050235</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2948,19 +2945,19 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>28.767123287671229</v>
+        <v>38.356164383561641</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="2"/>
-        <v>41.095890410958901</v>
+        <v>54.794520547945204</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>53.42465753424657</v>
+        <v>71.232876712328775</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2988,19 +2985,19 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" si="4"/>
-        <v>1427.5</v>
+        <v>1903.3333333333333</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>2.7376712328767119</v>
+        <v>3.6502283105022828</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>3.9109589041095889</v>
+        <v>5.2146118721461185</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="3"/>
-        <v>5.0842465753424655</v>
+        <v>6.7789954337899543</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -3028,19 +3025,19 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" si="4"/>
-        <v>12750</v>
+        <v>17000</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>24.452054794520549</v>
+        <v>32.602739726027394</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>34.93150684931507</v>
+        <v>46.575342465753423</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>45.410958904109592</v>
+        <v>60.547945205479451</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -3068,19 +3065,19 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="4"/>
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>40.273972602739725</v>
+        <v>53.698630136986296</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>57.534246575342465</v>
+        <v>76.712328767123282</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>74.794520547945211</v>
+        <v>99.726027397260268</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -3100,27 +3097,27 @@
         <v>217</v>
       </c>
       <c r="F9" s="2">
-        <v>120000</v>
+        <v>95000</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>328.76712328767121</v>
+        <v>260.27397260273972</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>31666.666666666668</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>57.534246575342458</v>
+        <v>60.730593607305927</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>82.191780821917803</v>
+        <v>86.757990867579906</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>106.84931506849314</v>
+        <v>112.78538812785388</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -3148,19 +3145,19 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="4"/>
-        <v>11250</v>
+        <v>15000</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>21.575342465753426</v>
+        <v>28.767123287671229</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>30.82191780821918</v>
+        <v>41.095890410958901</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>40.068493150684937</v>
+        <v>53.42465753424657</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -3188,19 +3185,19 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>2.8767123287671232</v>
+        <v>3.8356164383561637</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>4.1095890410958908</v>
+        <v>5.4794520547945202</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>5.3424657534246585</v>
+        <v>7.1232876712328768</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -3220,27 +3217,27 @@
         <v>217</v>
       </c>
       <c r="F12" s="2">
-        <v>123000</v>
+        <v>93000</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>336.98630136986299</v>
+        <v>254.79452054794521</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="4"/>
-        <v>30750</v>
+        <v>31000</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>58.972602739726021</v>
+        <v>59.452054794520542</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>84.246575342465746</v>
+        <v>84.93150684931507</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>109.52054794520548</v>
+        <v>110.41095890410959</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -3268,19 +3265,19 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" si="4"/>
-        <v>19625</v>
+        <v>26166.666666666668</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>37.636986301369859</v>
+        <v>50.182648401826484</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>53.767123287671232</v>
+        <v>71.689497716894977</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>69.897260273972606</v>
+        <v>93.196347031963469</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -3300,27 +3297,27 @@
         <v>217</v>
       </c>
       <c r="F14" s="2">
-        <v>226000</v>
+        <v>96000</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>619.17808219178085</v>
+        <v>263.01369863013701</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="4"/>
-        <v>56500</v>
+        <v>32000</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>108.35616438356165</v>
+        <v>61.36986301369862</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>154.79452054794521</v>
+        <v>87.671232876712324</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>201.23287671232879</v>
+        <v>113.97260273972603</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -3340,27 +3337,27 @@
         <v>217</v>
       </c>
       <c r="F15" s="2">
-        <v>152140</v>
+        <v>100000</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>416.82191780821915</v>
+        <v>273.97260273972603</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="4"/>
-        <v>38035</v>
+        <v>33333.333333333336</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>72.943835616438349</v>
+        <v>63.926940639269404</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>104.20547945205479</v>
+        <v>91.324200913242009</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>135.46712328767123</v>
+        <v>118.72146118721462</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -3380,27 +3377,27 @@
         <v>217</v>
       </c>
       <c r="F16" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>410.95890410958901</v>
+        <v>273.97260273972603</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="4"/>
-        <v>37500</v>
+        <v>33333.333333333336</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>71.91780821917807</v>
+        <v>63.926940639269404</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>102.73972602739725</v>
+        <v>91.324200913242009</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>133.56164383561642</v>
+        <v>118.72146118721462</v>
       </c>
     </row>
   </sheetData>

--- a/BOP_realistic_instance.xlsx
+++ b/BOP_realistic_instance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emapi\PycharmProjects\wm-bilevel-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065B3084-66E2-461A-AFFA-3D3A6CD0F0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B025BBF7-D76C-4A89-8D9F-1490E957A22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="client" sheetId="1" r:id="rId1"/>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2735,6 +2735,9 @@
         <f t="shared" si="2"/>
         <v>1.7943589041095891</v>
       </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G70" s="1"/>
@@ -2753,7 +2756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>

--- a/BOP_realistic_instance.xlsx
+++ b/BOP_realistic_instance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emapi\PycharmProjects\wm-bilevel-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B025BBF7-D76C-4A89-8D9F-1490E957A22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E0A72B-C7DD-461C-B56A-59CFD2868A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
